--- a/src/main/resources/Testdata.xlsx
+++ b/src/main/resources/Testdata.xlsx
@@ -2,14 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\7rmart_project\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="6180" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="CategoryPages" sheetId="5" r:id="rId2"/>
+    <sheet name="AdminUsersPage" sheetId="2" r:id="rId3"/>
+    <sheet name="ManagePagesPage" sheetId="4" r:id="rId4"/>
+    <sheet name="SubCategoryPage" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,15 +27,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>AldoAdmin</t>
+  </si>
+  <si>
+    <t>Ramu</t>
+  </si>
+  <si>
+    <t>Nolta</t>
+  </si>
+  <si>
+    <t>paperr</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>rose page</t>
+  </si>
+  <si>
+    <t>noora</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +376,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>